--- a/data/trans_orig/P16B99-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59EE34A2-FF62-4861-8BD5-03CFF70FBCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF5A379-8039-4AF8-9195-F18B4EFB53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3DC66913-1B2E-4292-B5FA-669B2863942B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64D674C4-90A5-422A-890F-1E8756CEB698}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E861AD41-09B9-4CF6-A7A8-55B87B5ACEDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE6C5AF-2408-4247-8383-3A755C8C03BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1222,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC265A9-80C6-42DD-826B-B7041C5E3B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2724E3E8-1510-4003-BB10-7953B867CE0B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93083C2E-87EF-496B-ADC4-3C4B774A8140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6A6645-1313-4915-B812-B4C38F0DED4D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B99-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF5A379-8039-4AF8-9195-F18B4EFB53F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A0CC338-FE17-4193-8F1F-6E99AE267AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64D674C4-90A5-422A-890F-1E8756CEB698}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D5C0059-C034-45E1-B08A-2C01192BC85E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,7 +76,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -88,10 +88,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -109,7 +109,7 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE6C5AF-2408-4247-8383-3A755C8C03BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F879CB7-B8CE-4CFD-907F-5DA407639AD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1222,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2724E3E8-1510-4003-BB10-7953B867CE0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7344E4EA-309C-4759-986E-47EF6289C01E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1943,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6A6645-1313-4915-B812-B4C38F0DED4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3215741C-F2A7-484C-A818-1C513364EDA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
